--- a/EAL/Database/GassesDB_21November2024.xlsx
+++ b/EAL/Database/GassesDB_21November2024.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ProdRepoGC\EAL\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E45500A0-3002-4107-9E9D-A1EA5E92BC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0543145-86D7-4598-A6C2-961CB76D61B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" xr2:uid="{B1712728-ABEC-4C68-9863-E770F5B249CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B1712728-ABEC-4C68-9863-E770F5B249CD}"/>
   </bookViews>
   <sheets>
     <sheet name="GassesDB_14November2024" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -361,13 +360,16 @@
   </si>
   <si>
     <t>C3H8</t>
+  </si>
+  <si>
+    <t>Restek_MXT-WAX_70670-273</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +506,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -901,7 +909,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -932,6 +940,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1309,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0E3F58-2DDD-4507-80AC-D4AF417C4208}">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1445,8 +1454,8 @@
       <c r="M2" s="5">
         <v>170</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>18</v>
+      <c r="N2" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>19</v>
@@ -1498,8 +1507,8 @@
       <c r="M3" s="5">
         <v>170</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>18</v>
+      <c r="N3" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>19</v>
@@ -1555,8 +1564,8 @@
       <c r="M4" s="3">
         <v>170</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>18</v>
+      <c r="N4" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>19</v>
@@ -1608,8 +1617,8 @@
       <c r="M5" s="5">
         <v>170</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>18</v>
+      <c r="N5" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>19</v>
@@ -1661,8 +1670,8 @@
       <c r="M6" s="5">
         <v>170</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>18</v>
+      <c r="N6" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>19</v>
@@ -1718,8 +1727,8 @@
       <c r="M7" s="3">
         <v>170</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>18</v>
+      <c r="N7" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>19</v>
@@ -1775,8 +1784,8 @@
       <c r="M8" s="3">
         <v>170</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>18</v>
+      <c r="N8" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>19</v>
@@ -1832,8 +1841,8 @@
       <c r="M9" s="3">
         <v>170</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>18</v>
+      <c r="N9" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>19</v>
@@ -1889,8 +1898,8 @@
       <c r="M10" s="3">
         <v>170</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>18</v>
+      <c r="N10" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>19</v>
@@ -1946,8 +1955,8 @@
       <c r="M11" s="3">
         <v>170</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>18</v>
+      <c r="N11" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>19</v>
@@ -2003,8 +2012,8 @@
       <c r="M12" s="3">
         <v>170</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>18</v>
+      <c r="N12" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>19</v>
@@ -2056,8 +2065,8 @@
       <c r="M13" s="3">
         <v>170</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>18</v>
+      <c r="N13" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>19</v>
@@ -2113,8 +2122,8 @@
       <c r="M14" s="3">
         <v>170</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>18</v>
+      <c r="N14" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>19</v>
@@ -2170,8 +2179,8 @@
       <c r="M15" s="3">
         <v>170</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>18</v>
+      <c r="N15" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>19</v>
@@ -2227,8 +2236,8 @@
       <c r="M16" s="3">
         <v>170</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>18</v>
+      <c r="N16" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>19</v>
@@ -2280,8 +2289,8 @@
       <c r="M17" s="3">
         <v>170</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>18</v>
+      <c r="N17" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>19</v>
@@ -2316,8 +2325,12 @@
       <c r="F18" s="3">
         <v>218</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="3">
+        <v>425</v>
+      </c>
+      <c r="H18" s="3">
+        <v>30</v>
+      </c>
       <c r="I18" s="4">
         <v>10</v>
       </c>
@@ -2327,10 +2340,18 @@
       <c r="K18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="L18" s="3">
+        <v>180</v>
+      </c>
+      <c r="M18" s="3">
+        <v>400</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -2338,7 +2359,9 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
+      <c r="W18" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -2370,10 +2393,18 @@
       <c r="K19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="L19" s="3">
+        <v>180</v>
+      </c>
+      <c r="M19" s="3">
+        <v>400</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -2381,7 +2412,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
+      <c r="W19" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -2681,8 +2714,8 @@
       <c r="M26" s="3">
         <v>170</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>18</v>
+      <c r="N26" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>19</v>
@@ -2738,8 +2771,8 @@
       <c r="M27" s="3">
         <v>170</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>18</v>
+      <c r="N27" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>19</v>
@@ -2791,8 +2824,8 @@
       <c r="M28" s="3">
         <v>170</v>
       </c>
-      <c r="N28" s="3" t="s">
-        <v>18</v>
+      <c r="N28" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>19</v>
@@ -2848,8 +2881,8 @@
       <c r="M29" s="17">
         <v>170</v>
       </c>
-      <c r="N29" s="17" t="s">
-        <v>18</v>
+      <c r="N29" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O29" s="17" t="s">
         <v>19</v>
@@ -2905,8 +2938,8 @@
       <c r="M30" s="3">
         <v>170</v>
       </c>
-      <c r="N30" s="3" t="s">
-        <v>18</v>
+      <c r="N30" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>19</v>
@@ -2962,8 +2995,8 @@
       <c r="M31" s="3">
         <v>170</v>
       </c>
-      <c r="N31" s="3" t="s">
-        <v>18</v>
+      <c r="N31" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>19</v>
@@ -3013,8 +3046,8 @@
       <c r="M32" s="3">
         <v>170</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>18</v>
+      <c r="N32" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>19</v>
@@ -3070,8 +3103,8 @@
       <c r="M33" s="3">
         <v>170</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>18</v>
+      <c r="N33" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>19</v>
@@ -3123,8 +3156,8 @@
       <c r="M34" s="5">
         <v>170</v>
       </c>
-      <c r="N34" s="5" t="s">
-        <v>18</v>
+      <c r="N34" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O34" s="5" t="s">
         <v>19</v>
@@ -3176,8 +3209,8 @@
       <c r="M35" s="5">
         <v>170</v>
       </c>
-      <c r="N35" s="5" t="s">
-        <v>18</v>
+      <c r="N35" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O35" s="5" t="s">
         <v>19</v>
@@ -3229,8 +3262,8 @@
       <c r="M36" s="14">
         <v>170</v>
       </c>
-      <c r="N36" s="14" t="s">
-        <v>18</v>
+      <c r="N36" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O36" s="14" t="s">
         <v>19</v>
@@ -3286,8 +3319,8 @@
       <c r="M37" s="17">
         <v>170</v>
       </c>
-      <c r="N37" s="17" t="s">
-        <v>18</v>
+      <c r="N37" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O37" s="17" t="s">
         <v>19</v>
@@ -3339,8 +3372,8 @@
       <c r="M38" s="3">
         <v>170</v>
       </c>
-      <c r="N38" s="5" t="s">
-        <v>18</v>
+      <c r="N38" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O38" s="5" t="s">
         <v>19</v>
@@ -3396,8 +3429,8 @@
       <c r="M39" s="17">
         <v>170</v>
       </c>
-      <c r="N39" s="17" t="s">
-        <v>18</v>
+      <c r="N39" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O39" s="17" t="s">
         <v>19</v>
@@ -3449,8 +3482,8 @@
       <c r="M40" s="3">
         <v>170</v>
       </c>
-      <c r="N40" s="3" t="s">
-        <v>18</v>
+      <c r="N40" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>19</v>
@@ -3502,8 +3535,8 @@
       <c r="M41" s="3">
         <v>170</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>18</v>
+      <c r="N41" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>19</v>
@@ -3555,8 +3588,8 @@
       <c r="M42" s="3">
         <v>170</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>18</v>
+      <c r="N42" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>19</v>
@@ -3608,8 +3641,8 @@
       <c r="M43" s="3">
         <v>170</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>18</v>
+      <c r="N43" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>19</v>
@@ -3661,8 +3694,8 @@
       <c r="M44" s="3">
         <v>170</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>18</v>
+      <c r="N44" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>19</v>
